--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1837633.766440529</v>
+        <v>1938349.364868047</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18102505.445641</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287413.317324959</v>
+        <v>278692.0725916856</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5730119.776432431</v>
+        <v>6047293.721681488</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>265.8973912518675</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.07871746736812</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -823,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>70.76772751010279</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -868,22 +870,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>17.61827133370022</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -905,16 +907,16 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>296.5441906485603</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>259.7435312720067</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>115.9575486395588</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1069,7 +1071,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>153.8963198926787</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1114,7 +1116,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>132.0554351892815</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1142,16 +1144,16 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1189,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -1196,10 +1198,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>124.3658034024555</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1306,10 +1308,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1345,19 +1347,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>141.5445049354348</v>
+        <v>217.2891245976628</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1382,13 +1384,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1430,10 +1432,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>368.3532435119275</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1537,16 +1539,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>31.28831241118197</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1610,7 +1612,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>263.2993086773079</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1619,13 +1621,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1670,7 +1672,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1765,7 +1767,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1783,7 +1785,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1822,13 +1824,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>254.093120106908</v>
       </c>
       <c r="X16" t="n">
-        <v>47.90525155920273</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1907,7 +1909,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2008,7 +2010,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>86.27769679771714</v>
+        <v>24.40875262509081</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2081,7 +2083,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2254,7 +2256,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>35.51678257079443</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -2287,7 +2289,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>54.66258501925298</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2482,19 +2484,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>43.70143389869422</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2716,19 +2718,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>39.86022305741668</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2953,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>111.26935662027</v>
+        <v>20.08472694640558</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2968,7 +2970,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3013,10 +3015,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3202,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3266,7 +3268,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -3424,7 +3426,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>35.47248331510059</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3436,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3503,25 +3505,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314795</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3560,16 +3562,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="39">
@@ -3670,16 +3672,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3718,7 +3720,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>93.15725658380842</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3740,7 +3742,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3752,13 +3754,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,13 +3796,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>74.23456261275577</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3910,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170844</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3961,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>45.76594660771082</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3983,7 +3985,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>419.7633272265698</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4034,13 +4036,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4201,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>221.9986082496088</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>839.7357219218454</v>
+        <v>687.7796263806116</v>
       </c>
       <c r="C2" t="n">
-        <v>805.6336531456727</v>
+        <v>653.677557604439</v>
       </c>
       <c r="D2" t="n">
-        <v>377.0519788829411</v>
+        <v>621.8081768192876</v>
       </c>
       <c r="E2" t="n">
-        <v>347.3176380816403</v>
+        <v>592.0738360179869</v>
       </c>
       <c r="F2" t="n">
         <v>323.4906125312521</v>
@@ -4328,7 +4330,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
         <v>453.9965675465116</v>
@@ -4349,31 +4351,31 @@
         <v>1294.102365436318</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1133.426975905747</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111166</v>
+        <v>1118.324916525462</v>
       </c>
       <c r="Y2" t="n">
-        <v>1266.035292406753</v>
+        <v>710.0387928251154</v>
       </c>
     </row>
     <row r="3">
@@ -4407,22 +4409,22 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>319.8519551513677</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>333.9883451770664</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="C4" t="n">
-        <v>333.9883451770664</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="D4" t="n">
-        <v>333.9883451770664</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
-        <v>333.9883451770664</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>262.5057921365585</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
         <v>262.5057921365585</v>
@@ -4489,19 +4491,19 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>343.6046302520008</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>761.8145120199619</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M4" t="n">
-        <v>761.8145120199619</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1235.38760622724</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1235.38760622724</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4516,22 +4518,22 @@
         <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U4" t="n">
-        <v>1270.644793662241</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V4" t="n">
-        <v>1270.644793662241</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="W4" t="n">
-        <v>998.6183892485328</v>
+        <v>1211.772498283812</v>
       </c>
       <c r="X4" t="n">
-        <v>753.2266345819453</v>
+        <v>966.3807436172247</v>
       </c>
       <c r="Y4" t="n">
-        <v>525.8069638960535</v>
+        <v>966.3807436172247</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>547.9560900011804</v>
+        <v>1264.950381849274</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1230.848313073101</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>1198.97893228795</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>1169.244591486649</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>741.3771618958569</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>339.9793305191208</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>485.687074042395</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>485.687074042395</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.9664787622</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2217.900228530727</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1958.677925847744</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1958.677925847744</v>
       </c>
       <c r="W5" t="n">
-        <v>1397.64384356672</v>
+        <v>1553.822471258778</v>
       </c>
       <c r="X5" t="n">
-        <v>978.5013801460308</v>
+        <v>1291.45526795372</v>
       </c>
       <c r="Y5" t="n">
-        <v>974.2556604860882</v>
+        <v>1287.209548293778</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326457</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>374.9907115556894</v>
       </c>
       <c r="K6" t="n">
-        <v>739.9048540962709</v>
+        <v>431.6596472970924</v>
       </c>
       <c r="L6" t="n">
-        <v>739.9048540962709</v>
+        <v>431.6596472970924</v>
       </c>
       <c r="M6" t="n">
-        <v>739.9048540962709</v>
+        <v>431.6596472970924</v>
       </c>
       <c r="N6" t="n">
-        <v>739.9048540962709</v>
+        <v>431.6596472970924</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>431.6596472970924</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>541.8546588418185</v>
+        <v>864.1235439377899</v>
       </c>
       <c r="C7" t="n">
-        <v>369.2929473250434</v>
+        <v>691.5618324210149</v>
       </c>
       <c r="D7" t="n">
-        <v>369.2929473250434</v>
+        <v>525.6838396225376</v>
       </c>
       <c r="E7" t="n">
-        <v>199.5349435757807</v>
+        <v>355.9258358732749</v>
       </c>
       <c r="F7" t="n">
-        <v>199.5349435757807</v>
+        <v>355.9258358732749</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>190.3345608991025</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>395.2818083374338</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>815.3347072823371</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1235.38760622724</v>
+        <v>1586.250411413396</v>
       </c>
       <c r="O7" t="n">
-        <v>1655.056855453022</v>
+        <v>2005.919660639178</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2353.42655460952</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.168501299429</v>
       </c>
       <c r="U7" t="n">
-        <v>1418.750429333523</v>
+        <v>2087.735500552534</v>
       </c>
       <c r="V7" t="n">
-        <v>1131.794921203953</v>
+        <v>1800.779992422965</v>
       </c>
       <c r="W7" t="n">
-        <v>1131.794921203953</v>
+        <v>1528.753588009256</v>
       </c>
       <c r="X7" t="n">
-        <v>886.4031665373657</v>
+        <v>1283.361833342669</v>
       </c>
       <c r="Y7" t="n">
-        <v>658.9834958514739</v>
+        <v>1055.942162656777</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>866.5213804116893</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>832.4193116355167</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>800.5499308503653</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1477.116202953456</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1477.116202953456</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>1114.499252887282</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>709.6437982983157</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X8" t="n">
-        <v>584.0217746594717</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y8" t="n">
-        <v>175.7356509591251</v>
+        <v>999.910708885711</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>711.8779941617646</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="C10" t="n">
-        <v>711.8779941617646</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="D10" t="n">
-        <v>546.0000013632873</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>376.2419976140245</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>199.5349435757807</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>813.4916901053949</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1233.544589050298</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1233.544589050298</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1537.942061378414</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1292.062614956869</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1292.062614956869</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1292.062614956869</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1149.088367547339</v>
+        <v>1458.649716896724</v>
       </c>
       <c r="X10" t="n">
-        <v>903.6966128807517</v>
+        <v>1213.257962230137</v>
       </c>
       <c r="Y10" t="n">
-        <v>903.6966128807517</v>
+        <v>985.8382915442448</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2100.962199843034</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1662.819727026457</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1226.909942200902</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>793.1351973591968</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>365.2677677684046</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>76.13761321162086</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>910.4879051697988</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1852.690868663607</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M11" t="n">
-        <v>2794.893832157415</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N11" t="n">
-        <v>3737.096795651223</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>3737.096795651223</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>3737.096795651223</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3737.096795651223</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>3503.161559637919</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>3243.939256954935</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>2881.322306888762</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>2881.322306888762</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2509.248323543381</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2100.962199843034</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>926.6336502885522</v>
+        <v>1036.216302815308</v>
       </c>
       <c r="C13" t="n">
-        <v>754.0719387717771</v>
+        <v>863.6545912985331</v>
       </c>
       <c r="D13" t="n">
-        <v>588.1939459732998</v>
+        <v>697.7765985000558</v>
       </c>
       <c r="E13" t="n">
-        <v>418.435942224037</v>
+        <v>528.018594750793</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7288881857932</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>76.13761321162086</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>76.13761321162086</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2674.558054071736</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2428.678607650191</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U13" t="n">
-        <v>2150.245606903296</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V13" t="n">
-        <v>1863.290098773727</v>
+        <v>1972.872751300483</v>
       </c>
       <c r="W13" t="n">
-        <v>1591.263694360019</v>
+        <v>1700.846346886775</v>
       </c>
       <c r="X13" t="n">
-        <v>1345.871939693431</v>
+        <v>1455.454592220187</v>
       </c>
       <c r="Y13" t="n">
-        <v>1118.452269007539</v>
+        <v>1228.034921534295</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1641.881158114541</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>1203.738685297964</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>937.779787644118</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>504.0050428024131</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>76.13761321162086</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>76.13761321162086</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>511.3923006645387</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>1345.742592622717</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L14" t="n">
-        <v>1345.742592622717</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M14" t="n">
-        <v>1345.742592622717</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N14" t="n">
-        <v>1345.742592622717</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>3503.161559637919</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>3243.939256954935</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>2881.322306888762</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>2476.466852299795</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>2476.466852299795</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2068.180728599449</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.3093582029137</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C15" t="n">
-        <v>475.852897039556</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7626081861092</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6421935130629</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2583551292245</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8732653954084</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H15" t="n">
-        <v>76.13761321162086</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2012863720785</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J15" t="n">
-        <v>426.7596113382908</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K15" t="n">
-        <v>1107.493131408668</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="L15" t="n">
-        <v>1107.493131408668</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="M15" t="n">
-        <v>1107.493131408668</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="N15" t="n">
-        <v>1107.493131408668</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="O15" t="n">
-        <v>1107.493131408668</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="P15" t="n">
-        <v>1107.493131408668</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.20459659609</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.37737469043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.921937138813</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.743293469415</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.406746469383</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.289228531382</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9664742645762</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X15" t="n">
-        <v>830.0990385034561</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6132592826768</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>982.6340623067273</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C16" t="n">
-        <v>982.6340623067273</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D16" t="n">
-        <v>816.75606950825</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E16" t="n">
-        <v>646.9980657589872</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F16" t="n">
-        <v>470.2910117207434</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>304.699736746571</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>164.7975624369455</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2533.555854412417</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2287.676407990873</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2009.243407243978</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.287899114408</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W16" t="n">
-        <v>1450.2614947007</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X16" t="n">
-        <v>1401.872351711606</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y16" t="n">
-        <v>1174.452681025714</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="17">
@@ -5501,10 +5503,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5513,25 +5515,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M17" t="n">
-        <v>3603.973621145286</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N17" t="n">
-        <v>4729.704604581732</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O17" t="n">
-        <v>4729.704604581732</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="P17" t="n">
-        <v>4729.704604581732</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
         <v>4943.887948785925</v>
@@ -5540,16 +5542,16 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
@@ -5558,7 +5560,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.710185817961</v>
+        <v>1036.216302815308</v>
       </c>
       <c r="C19" t="n">
-        <v>926.148474301186</v>
+        <v>863.6545912985331</v>
       </c>
       <c r="D19" t="n">
-        <v>760.2704815027087</v>
+        <v>697.7765985000558</v>
       </c>
       <c r="E19" t="n">
         <v>673.1212928181459</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303136</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V19" t="n">
-        <v>2035.366634303136</v>
+        <v>1972.872751300483</v>
       </c>
       <c r="W19" t="n">
-        <v>1763.340229889428</v>
+        <v>1700.846346886775</v>
       </c>
       <c r="X19" t="n">
-        <v>1517.94847522284</v>
+        <v>1455.454592220187</v>
       </c>
       <c r="Y19" t="n">
-        <v>1290.528804536948</v>
+        <v>1228.034921534295</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
         <v>2090.757574835212</v>
@@ -5738,10 +5740,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5756,46 +5758,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2412.031452783383</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3569.079287993933</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N20" t="n">
-        <v>3569.079287993933</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1077.292364523333</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>904.7306530065579</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>738.8526602080806</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>569.0946564588178</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>392.387602420574</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>226.7963274464017</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
         <v>190.9207894961043</v>
@@ -5911,49 +5913,49 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066092</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745702</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.22078133891</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173584</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2642.287896536276</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2396.408450114731</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V22" t="n">
-        <v>2013.948813008508</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W22" t="n">
-        <v>1741.922408594799</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
-        <v>1496.530653928212</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>1269.11098324232</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5990,25 +5992,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>605.8694973157604</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>1680.92946356862</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W24" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>451.897152078511</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>451.897152078511</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>286.3058771043387</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>146.4037027947132</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>269.4112304877937</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1103.761522445972</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>2178.821488698831</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="M26" t="n">
-        <v>2178.821488698831</v>
+        <v>2093.658967439508</v>
       </c>
       <c r="N26" t="n">
-        <v>3304.552472135278</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4284.732138705584</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6300,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>577.5122933038401</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>407.7542895545774</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6464,22 +6466,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>605.8694973157604</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>1680.92946356862</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M29" t="n">
-        <v>2837.977298779171</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N29" t="n">
-        <v>3963.708282215618</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O29" t="n">
-        <v>4943.887948785924</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
         <v>4943.887948785924</v>
@@ -6543,25 +6545,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1039.174348374283</v>
+        <v>1035.728611060351</v>
       </c>
       <c r="C31" t="n">
-        <v>866.6126368575082</v>
+        <v>863.1668995435758</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.99296709327</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="Y31" t="n">
-        <v>1230.99296709327</v>
+        <v>1227.547229779338</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6774,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2970399865835</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>426.8553649527958</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="Q33" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C35" t="n">
         <v>2090.757574835212</v>
@@ -6923,10 +6925,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6935,16 +6937,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N35" t="n">
         <v>2588.899621423628</v>
@@ -6962,25 +6964,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7013,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2970399865835</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>426.8553649527958</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.3368563937634</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>754.506065166389</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>588.6280723679117</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>418.8700686186489</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>242.1630145804051</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1554751127505</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7162,34 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>1371.865819681875</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M38" t="n">
-        <v>2528.913654892426</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N38" t="n">
-        <v>3654.644638328873</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3654.644638328873</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
@@ -7248,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J39" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1004.611946844417</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>832.0502353276421</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>666.1722425291648</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>496.4142387799021</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1941.268395329592</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1669.241990915884</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1423.850236249296</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1196.430565563404</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1811.83204528625</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>1373.689572469674</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>937.779787644118</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>504.0050428024131</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>76.13761321162086</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>76.13761321162086</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1345.742592622717</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L41" t="n">
-        <v>2262.917935035995</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M41" t="n">
-        <v>2262.917935035995</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N41" t="n">
-        <v>2262.917935035995</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O41" t="n">
-        <v>2262.917935035995</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="P41" t="n">
-        <v>3091.227809869392</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q41" t="n">
-        <v>3637.726595827986</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R41" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>3503.161559637919</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>3503.161559637919</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>3140.544609571745</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3065.560202892194</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>2646.417739471505</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2238.131615771158</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1155.195773823502</v>
+        <v>811.7546776883955</v>
       </c>
       <c r="C43" t="n">
-        <v>982.6340623067273</v>
+        <v>639.1929661716205</v>
       </c>
       <c r="D43" t="n">
-        <v>816.75606950825</v>
+        <v>473.3149733731432</v>
       </c>
       <c r="E43" t="n">
-        <v>646.9980657589872</v>
+        <v>303.5569696238804</v>
       </c>
       <c r="F43" t="n">
-        <v>470.2910117207434</v>
+        <v>126.8499155856366</v>
       </c>
       <c r="G43" t="n">
-        <v>304.699736746571</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>164.7975624369455</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R43" t="n">
-        <v>2671.379401819793</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S43" t="n">
-        <v>2512.138033117789</v>
+        <v>2559.67908147158</v>
       </c>
       <c r="T43" t="n">
-        <v>2266.258586696244</v>
+        <v>2313.799635050035</v>
       </c>
       <c r="U43" t="n">
-        <v>1987.82558594935</v>
+        <v>2035.36663430314</v>
       </c>
       <c r="V43" t="n">
-        <v>1700.87007781978</v>
+        <v>1748.41112617357</v>
       </c>
       <c r="W43" t="n">
-        <v>1428.843673406072</v>
+        <v>1476.384721759862</v>
       </c>
       <c r="X43" t="n">
-        <v>1382.615444509394</v>
+        <v>1230.992967093275</v>
       </c>
       <c r="Y43" t="n">
-        <v>1155.195773823502</v>
+        <v>1003.573296407383</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2493.005436585844</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2054.862963769267</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1618.953178943712</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1194.949818108793</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>767.0823885180007</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>365.6845571412646</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>76.55440258448085</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>76.13761321162086</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K44" t="n">
-        <v>910.4879051697988</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L44" t="n">
-        <v>910.4879051697988</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M44" t="n">
-        <v>910.4879051697988</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N44" t="n">
-        <v>1320.714971542188</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>3586.813433454082</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>3327.591130771099</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>3327.591130771099</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3327.591130771099</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3327.591130771099</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2919.305007070752</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.6336502885522</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>754.0719387717771</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>588.1939459732998</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>418.435942224037</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>241.7288881857932</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2671.379401819793</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2671.379401819793</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2425.499955398248</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2147.066954651353</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1860.111446521784</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1588.085042108075</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1342.693287441488</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1118.452269007539</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7997,10 +7999,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>236.2898988798406</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,13 +8057,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>262.4693064538401</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8137,22 +8139,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>225.3346227128309</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>296.5687363523682</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>358.9284720888815</v>
+        <v>57.24134923374044</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.404832368463</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8377,22 +8379,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>299.7839758982018</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>42.55209558322758</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8459,19 +8461,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8534,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8617,16 +8619,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>298.4303698644312</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>951.7201651452606</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N11" t="n">
-        <v>951.7201651452606</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>70.4887524543642</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,10 +8771,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8924,22 +8926,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>288.7351832965069</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>926.4397398113929</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9006,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9179,10 +9181,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>103.9790360591069</v>
       </c>
       <c r="Q17" t="n">
-        <v>216.346812327467</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9237,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,25 +9406,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1050.672356668189</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>387.209503997221</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -9659,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>168.8387779969839</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>500.2430848324429</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9893,10 +9895,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>508.6956131767483</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10124,13 +10126,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>110.0804674982792</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10191,28 +10193,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>327.8732572545618</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03656536949883105</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10659,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03656536949883105</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,16 +10676,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>315.3936483072348</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10820,25 +10822,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>257.101999686301</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>750.2469944428858</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -10896,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,28 +11062,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>926.4397398113929</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>677.968600966497</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11294,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>414.370774113524</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>951.7201651452608</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,10 +23320,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>46.59779527455493</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23425,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>143.6516710866794</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23498,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>168.251378299992</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23558,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>15.21302026266335</v>
       </c>
       <c r="X16" t="n">
-        <v>195.0325855607189</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>81.78272691405297</v>
+        <v>143.6516710866793</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>102.9863699957348</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>102.9863699957303</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>44.07191583437719</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3589898130759</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>52.94985625022251</v>
+        <v>144.134485924087</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25125,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>135.3636110865067</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081424</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>190.9286964644654</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,13 +25684,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>326.5723374303212</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>139.5921776627222</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>197.1718905122108</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25871,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9.673670166717955</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25922,13 +25924,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>3.146865729424007</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>499789.6378808633</v>
+        <v>510358.2399002594</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>499789.6378808633</v>
+        <v>512261.1399385307</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>427066.6134553873</v>
+        <v>528194.7520187334</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>427066.6134553873</v>
+        <v>528194.7520187335</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>528194.7520187334</v>
+        <v>528194.7520187336</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>528194.7520187334</v>
+        <v>528194.7520187335</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>528194.7520187334</v>
+        <v>528194.7520187335</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>427066.6134553873</v>
+        <v>528194.7520187336</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>427066.6134553874</v>
+        <v>528194.7520187334</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>469128.9049041074</v>
+        <v>469128.9049041076</v>
       </c>
       <c r="C2" t="n">
         <v>469128.9049041075</v>
       </c>
       <c r="D2" t="n">
-        <v>469128.9049041076</v>
+        <v>469128.9049041074</v>
       </c>
       <c r="E2" t="n">
-        <v>372737.2772060219</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="F2" t="n">
-        <v>372737.2772060219</v>
+        <v>461000.3861201835</v>
       </c>
       <c r="G2" t="n">
         <v>461000.3861201833</v>
       </c>
       <c r="H2" t="n">
-        <v>461000.3861201833</v>
+        <v>461000.3861201835</v>
       </c>
       <c r="I2" t="n">
         <v>461000.3861201833</v>
@@ -26341,19 +26343,19 @@
         <v>461000.3861201833</v>
       </c>
       <c r="L2" t="n">
-        <v>461000.3861201833</v>
+        <v>461000.3861201834</v>
       </c>
       <c r="M2" t="n">
         <v>461000.3861201833</v>
       </c>
       <c r="N2" t="n">
+        <v>461000.3861201834</v>
+      </c>
+      <c r="O2" t="n">
+        <v>461000.3861201835</v>
+      </c>
+      <c r="P2" t="n">
         <v>461000.3861201833</v>
-      </c>
-      <c r="O2" t="n">
-        <v>372737.2772060219</v>
-      </c>
-      <c r="P2" t="n">
-        <v>372737.2772060218</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501598</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998296</v>
       </c>
       <c r="E3" t="n">
-        <v>157477.294922104</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89499.80860636913</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877236</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622465</v>
       </c>
       <c r="M3" t="n">
-        <v>131436.2471574195</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>199828.8262465156</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>163226.8987932459</v>
       </c>
       <c r="D4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>54981.28828435789</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="F4" t="n">
-        <v>54981.28828435788</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="G4" t="n">
-        <v>68000.69828933282</v>
+        <v>68000.69828933277</v>
       </c>
       <c r="H4" t="n">
         <v>68000.69828933281</v>
       </c>
       <c r="I4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="J4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="K4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="L4" t="n">
         <v>68000.69828933281</v>
       </c>
       <c r="M4" t="n">
-        <v>68000.69828933282</v>
+        <v>68000.69828933277</v>
       </c>
       <c r="N4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933277</v>
       </c>
       <c r="O4" t="n">
-        <v>54981.28828435789</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="P4" t="n">
-        <v>54981.28828435788</v>
+        <v>68000.69828933279</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26472,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800255</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67683.98986065952</v>
+        <v>67683.98986065976</v>
       </c>
       <c r="C6" t="n">
-        <v>209875.2905203695</v>
+        <v>167358.0244078431</v>
       </c>
       <c r="D6" t="n">
-        <v>209875.2905203696</v>
+        <v>226752.143539693</v>
       </c>
       <c r="E6" t="n">
-        <v>102414.1079587282</v>
+        <v>132926.3400040083</v>
       </c>
       <c r="F6" t="n">
-        <v>259891.4028808322</v>
+        <v>315281.4492250582</v>
       </c>
       <c r="G6" t="n">
-        <v>225781.6406186889</v>
+        <v>315281.4492250581</v>
       </c>
       <c r="H6" t="n">
-        <v>315281.449225058</v>
+        <v>315281.4492250581</v>
       </c>
       <c r="I6" t="n">
         <v>315281.449225058</v>
@@ -26546,22 +26548,22 @@
         <v>204266.9838800678</v>
       </c>
       <c r="K6" t="n">
+        <v>262235.5945862856</v>
+      </c>
+      <c r="L6" t="n">
+        <v>305889.1474984356</v>
+      </c>
+      <c r="M6" t="n">
+        <v>163081.2782870704</v>
+      </c>
+      <c r="N6" t="n">
+        <v>315281.4492250582</v>
+      </c>
+      <c r="O6" t="n">
+        <v>315281.4492250581</v>
+      </c>
+      <c r="P6" t="n">
         <v>315281.449225058</v>
-      </c>
-      <c r="L6" t="n">
-        <v>315281.449225058</v>
-      </c>
-      <c r="M6" t="n">
-        <v>183845.2020676385</v>
-      </c>
-      <c r="N6" t="n">
-        <v>315281.449225058</v>
-      </c>
-      <c r="O6" t="n">
-        <v>259891.4028808322</v>
-      </c>
-      <c r="P6" t="n">
-        <v>259891.4028808321</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.404832368463</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939399</v>
       </c>
       <c r="E4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939399</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939399</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>157.6913640430168</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27442,10 +27444,10 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>393.124544995975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,13 +27545,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>104.1722559877585</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27588,22 +27590,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>251.6878690358712</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27625,16 +27627,16 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>104.2627093945167</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>155.2075075144757</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>73.9428838922384</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27789,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27825,7 +27827,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>89.52433206465062</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>289.9811395907772</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27862,16 +27864,16 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27909,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>290.5852353840269</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28016,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,19 +28067,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>127.7616354341366</v>
+        <v>52.0170157719086</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34717,10 +34719,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>236.2898988798406</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,13 +34777,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>262.4693064538401</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34857,22 +34859,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>225.3346227128309</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>296.5687363523682</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>358.9284720888815</v>
+        <v>57.24134923374044</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35027,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.404832368463</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35097,22 +35099,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>299.7839758982018</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>42.55209558322758</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35179,19 +35181,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35254,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,16 +35339,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>298.4303698644312</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>951.7201651452606</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N11" t="n">
-        <v>951.7201651452606</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>70.4887524543642</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,10 +35491,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850284</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>288.7351832965069</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>926.4397398113929</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35668,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,10 +35743,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,16 +35895,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>103.9790360591069</v>
       </c>
       <c r="Q17" t="n">
-        <v>216.346812327467</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -35957,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36124,25 +36126,25 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>1050.672356668189</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>387.209503997221</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924961008</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36358,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36379,7 +36381,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>661.3192390158824</v>
@@ -36455,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>168.8387779969839</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>500.2430848324429</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36613,10 +36615,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36683,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>508.6956131767483</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36844,13 +36846,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>110.0804674982792</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
         <v>170.862691669754</v>
@@ -36911,28 +36913,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>327.8732572545618</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03656536949883105</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,7 +37159,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03656536949883105</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37394,16 +37396,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>315.3936483072348</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37540,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>257.101999686301</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>750.2469944428858</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
@@ -37616,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850284</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>926.4397398113929</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>677.968600966497</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,10 +37952,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165111</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821539</v>
@@ -38014,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>414.370774113524</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>951.7201651452608</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38038,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1938349.364868047</v>
+        <v>1937824.182499015</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916856</v>
+        <v>278692.0725916861</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6047293.721681488</v>
+        <v>6047293.721681486</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>361.0423675600758</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -670,16 +670,16 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>265.8973912518675</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -837,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>17.61827133370022</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>127.4326929346387</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
@@ -907,13 +907,13 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>234.8193089325908</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -961,10 +961,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>259.7435312720067</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1065,13 +1065,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>34.06158462963967</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8963198926787</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>132.0554351892815</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>202.0357464550218</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -1198,10 +1198,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>27.9735834668218</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1353,13 +1353,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>217.2891245976628</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,25 +1372,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1429,16 +1429,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="12">
@@ -1539,7 +1539,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>31.28831241118197</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -1548,7 +1548,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1590,7 +1590,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>144.947150556491</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1609,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791327456</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1666,16 +1666,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="15">
@@ -1782,7 +1782,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1824,10 +1824,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>254.093120106908</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1846,25 +1846,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791327456</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1903,16 +1903,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864836</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="18">
@@ -2010,7 +2010,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>24.40875262509081</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2019,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2083,25 +2083,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884122</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561545</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022559</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>54.66258501925298</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2298,7 +2298,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2484,19 +2484,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>43.70143389869422</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2730,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>193.8659438253727</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2955,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>20.08472694640558</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2967,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3015,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3268,7 +3268,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -3283,7 +3283,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3505,25 +3505,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791314795</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3562,16 +3562,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3742,7 +3742,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3912,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>24.34318456170844</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3979,7 +3979,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4197,7 +4197,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>205.8759751982082</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>687.7796263806116</v>
+        <v>888.1040799405456</v>
       </c>
       <c r="C2" t="n">
-        <v>653.677557604439</v>
+        <v>523.4148197788528</v>
       </c>
       <c r="D2" t="n">
-        <v>621.8081768192876</v>
+        <v>491.5454389937014</v>
       </c>
       <c r="E2" t="n">
-        <v>592.0738360179869</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F2" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
         <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
         <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1134.24202645431</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1134.24202645431</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W2" t="n">
-        <v>1133.426975905747</v>
+        <v>1333.751429465681</v>
       </c>
       <c r="X2" t="n">
-        <v>1118.324916525462</v>
+        <v>1318.649370085396</v>
       </c>
       <c r="Y2" t="n">
-        <v>710.0387928251154</v>
+        <v>910.3632463850494</v>
       </c>
     </row>
     <row r="3">
@@ -4415,16 +4415,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>774.5621248982375</v>
+        <v>505.3151106838835</v>
       </c>
       <c r="C4" t="n">
-        <v>774.5621248982375</v>
+        <v>505.3151106838835</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4491,22 +4491,22 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374338</v>
+        <v>538.7332355342593</v>
       </c>
       <c r="M4" t="n">
-        <v>815.3347072823371</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>1235.38760622724</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1235.38760622724</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4515,25 +4515,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.524240083786</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U4" t="n">
-        <v>1516.524240083786</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V4" t="n">
-        <v>1229.568731954216</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="W4" t="n">
-        <v>1211.772498283812</v>
+        <v>879.4267572036415</v>
       </c>
       <c r="X4" t="n">
-        <v>966.3807436172247</v>
+        <v>634.035002537054</v>
       </c>
       <c r="Y4" t="n">
-        <v>966.3807436172247</v>
+        <v>505.3151106838835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1264.950381849274</v>
+        <v>383.746187468993</v>
       </c>
       <c r="C5" t="n">
-        <v>1230.848313073101</v>
+        <v>349.6441186928203</v>
       </c>
       <c r="D5" t="n">
-        <v>1198.97893228795</v>
+        <v>317.7747379076689</v>
       </c>
       <c r="E5" t="n">
-        <v>1169.244591486649</v>
+        <v>288.0403971063681</v>
       </c>
       <c r="F5" t="n">
-        <v>741.3771618958569</v>
+        <v>50.84917596233695</v>
       </c>
       <c r="G5" t="n">
-        <v>339.9793305191208</v>
+        <v>50.84917596233695</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233704</v>
+        <v>50.84917596233695</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947704</v>
+        <v>50.43238658947696</v>
       </c>
       <c r="J5" t="n">
-        <v>485.687074042395</v>
+        <v>485.6870740423948</v>
       </c>
       <c r="K5" t="n">
-        <v>485.687074042395</v>
+        <v>1109.787858087172</v>
       </c>
       <c r="L5" t="n">
-        <v>485.687074042395</v>
+        <v>1109.787858087172</v>
       </c>
       <c r="M5" t="n">
-        <v>485.687074042395</v>
+        <v>1109.787858087172</v>
       </c>
       <c r="N5" t="n">
-        <v>1109.787858087173</v>
+        <v>1109.787858087172</v>
       </c>
       <c r="O5" t="n">
-        <v>1181.865694717422</v>
+        <v>1181.865694717419</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.9664787622</v>
+        <v>1805.966478762196</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720795</v>
+        <v>2352.465264720791</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473852</v>
+        <v>2521.619329473848</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.967455657689</v>
+        <v>2521.619329473848</v>
       </c>
       <c r="T5" t="n">
-        <v>2217.900228530727</v>
+        <v>2301.552102346886</v>
       </c>
       <c r="U5" t="n">
-        <v>1958.677925847744</v>
+        <v>2042.329799663903</v>
       </c>
       <c r="V5" t="n">
-        <v>1958.677925847744</v>
+        <v>2042.329799663903</v>
       </c>
       <c r="W5" t="n">
-        <v>1553.822471258778</v>
+        <v>1637.474345074937</v>
       </c>
       <c r="X5" t="n">
-        <v>1291.45526795372</v>
+        <v>1218.331881654247</v>
       </c>
       <c r="Y5" t="n">
-        <v>1287.209548293778</v>
+        <v>810.0457579539008</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.6041315807698</v>
+        <v>556.6041315807697</v>
       </c>
       <c r="C6" t="n">
-        <v>450.1476704174121</v>
+        <v>450.147670417412</v>
       </c>
       <c r="D6" t="n">
-        <v>355.0573815639654</v>
+        <v>355.0573815639653</v>
       </c>
       <c r="E6" t="n">
-        <v>260.9369668909191</v>
+        <v>260.936966890919</v>
       </c>
       <c r="F6" t="n">
-        <v>177.5531285070807</v>
+        <v>177.5531285070806</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326457</v>
+        <v>92.16803877326448</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947704</v>
+        <v>50.43238658947696</v>
       </c>
       <c r="I6" t="n">
-        <v>50.43238658947704</v>
+        <v>76.49605974993456</v>
       </c>
       <c r="J6" t="n">
-        <v>374.9907115556894</v>
+        <v>401.0543847161469</v>
       </c>
       <c r="K6" t="n">
-        <v>431.6596472970924</v>
+        <v>1025.155168760924</v>
       </c>
       <c r="L6" t="n">
-        <v>431.6596472970924</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>431.6596472970924</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>431.6596472970924</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>431.6596472970924</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
         <v>1055.760431341871</v>
@@ -4688,10 +4688,10 @@
         <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>804.3938118813122</v>
+        <v>804.3938118813121</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.908032660533</v>
+        <v>677.9080326605329</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>864.1235439377899</v>
+        <v>593.0357356940322</v>
       </c>
       <c r="C7" t="n">
-        <v>691.5618324210149</v>
+        <v>420.4740241772571</v>
       </c>
       <c r="D7" t="n">
-        <v>525.6838396225376</v>
+        <v>254.5960313787798</v>
       </c>
       <c r="E7" t="n">
-        <v>355.9258358732749</v>
+        <v>84.83802762951703</v>
       </c>
       <c r="F7" t="n">
-        <v>355.9258358732749</v>
+        <v>50.43238658947696</v>
       </c>
       <c r="G7" t="n">
-        <v>190.3345608991025</v>
+        <v>50.43238658947696</v>
       </c>
       <c r="H7" t="n">
-        <v>50.43238658947704</v>
+        <v>50.43238658947696</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947704</v>
+        <v>50.43238658947696</v>
       </c>
       <c r="J7" t="n">
-        <v>137.0120717541669</v>
+        <v>50.43238658947696</v>
       </c>
       <c r="K7" t="n">
-        <v>411.7705263253025</v>
+        <v>325.1908411606125</v>
       </c>
       <c r="L7" t="n">
-        <v>829.9804080932636</v>
+        <v>743.4007229285736</v>
       </c>
       <c r="M7" t="n">
-        <v>1289.464275274177</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.250411413396</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.919660639178</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.42655460952</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473852</v>
+        <v>2521.619329473848</v>
       </c>
       <c r="R7" t="n">
-        <v>2521.619329473852</v>
+        <v>2500.20150817922</v>
       </c>
       <c r="S7" t="n">
-        <v>2521.619329473852</v>
+        <v>2340.960139477216</v>
       </c>
       <c r="T7" t="n">
-        <v>2366.168501299429</v>
+        <v>2095.080693055671</v>
       </c>
       <c r="U7" t="n">
-        <v>2087.735500552534</v>
+        <v>1816.647692308777</v>
       </c>
       <c r="V7" t="n">
-        <v>1800.779992422965</v>
+        <v>1529.692184179207</v>
       </c>
       <c r="W7" t="n">
-        <v>1528.753588009256</v>
+        <v>1257.665779765499</v>
       </c>
       <c r="X7" t="n">
-        <v>1283.361833342669</v>
+        <v>1012.274025098911</v>
       </c>
       <c r="Y7" t="n">
-        <v>1055.942162656777</v>
+        <v>784.8543544130193</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>866.5213804116893</v>
+        <v>749.1815672676233</v>
       </c>
       <c r="C8" t="n">
-        <v>832.4193116355167</v>
+        <v>311.0390944510467</v>
       </c>
       <c r="D8" t="n">
-        <v>800.5499308503653</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>770.8155900490646</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4813,43 +4813,43 @@
         <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
+        <v>488.6559039815464</v>
+      </c>
+      <c r="N8" t="n">
         <v>1149.495958523325</v>
       </c>
-      <c r="N8" t="n">
-        <v>1293.567921177998</v>
-      </c>
       <c r="O8" t="n">
-        <v>1954.407975719776</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2449.993599304466</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2190.771296621483</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>1828.15434655531</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W8" t="n">
-        <v>1423.298891966343</v>
+        <v>1598.869320833163</v>
       </c>
       <c r="X8" t="n">
-        <v>1004.156428545654</v>
+        <v>1583.767261452878</v>
       </c>
       <c r="Y8" t="n">
-        <v>999.910708885711</v>
+        <v>1175.481137752531</v>
       </c>
     </row>
     <row r="9">
@@ -4901,7 +4901,7 @@
         <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>794.0196728252577</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>794.0196728252577</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
         <v>794.0196728252577</v>
@@ -5001,13 +5001,13 @@
         <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1458.649716896724</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1213.257962230137</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>985.8382915442448</v>
+        <v>1160.715522056492</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D11" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I11" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J11" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K11" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L11" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M11" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N11" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O11" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P11" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q11" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R11" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5111,10 +5111,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H12" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I12" t="n">
         <v>128.3245134312372</v>
@@ -5123,19 +5123,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
         <v>1107.588885023173</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1036.216302815308</v>
+        <v>915.9519976190925</v>
       </c>
       <c r="C13" t="n">
-        <v>863.6545912985331</v>
+        <v>743.3902861023174</v>
       </c>
       <c r="D13" t="n">
-        <v>697.7765985000558</v>
+        <v>577.5122933038401</v>
       </c>
       <c r="E13" t="n">
-        <v>528.018594750793</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="F13" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G13" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H13" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I13" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J13" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L13" t="n">
         <v>881.8088617745661</v>
@@ -5217,34 +5217,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309242</v>
       </c>
       <c r="Q13" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173574</v>
       </c>
       <c r="R13" t="n">
-        <v>2697.502628878951</v>
+        <v>2697.502628878946</v>
       </c>
       <c r="S13" t="n">
-        <v>2538.261260176947</v>
+        <v>2538.261260176943</v>
       </c>
       <c r="T13" t="n">
-        <v>2538.261260176947</v>
+        <v>2292.381813755398</v>
       </c>
       <c r="U13" t="n">
-        <v>2259.828259430053</v>
+        <v>2013.948813008503</v>
       </c>
       <c r="V13" t="n">
-        <v>1972.872751300483</v>
+        <v>1726.993304878934</v>
       </c>
       <c r="W13" t="n">
-        <v>1700.846346886775</v>
+        <v>1580.582041690559</v>
       </c>
       <c r="X13" t="n">
-        <v>1455.454592220187</v>
+        <v>1335.190287023971</v>
       </c>
       <c r="Y13" t="n">
-        <v>1228.034921534295</v>
+        <v>1107.77061633808</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D14" t="n">
         <v>1654.847790009658</v>
@@ -5266,61 +5266,61 @@
         <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771606</v>
+        <v>793.205615577161</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004248</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.677629643641</v>
       </c>
       <c r="I14" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J14" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K14" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L14" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M14" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U14" t="n">
         <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y14" t="n">
         <v>2955.199618136698</v>
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H15" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I15" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I16" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J16" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L16" t="n">
         <v>881.8088617745661</v>
@@ -5460,28 +5460,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U16" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>2013.948813008508</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.205615577161</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004248</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.677629643641</v>
       </c>
       <c r="I17" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K17" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L17" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M17" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N17" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O17" t="n">
-        <v>4294.449917128814</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U17" t="n">
         <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5585,37 +5585,37 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H18" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1036.216302815308</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>863.6545912985331</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>697.7765985000558</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I19" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J19" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L19" t="n">
         <v>881.8088617745661</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2538.261260176947</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2259.828259430053</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1972.872751300483</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1700.846346886775</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1455.454592220187</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1228.034921534295</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
         <v>2090.757574835212</v>
@@ -5740,49 +5740,49 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I20" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M20" t="n">
-        <v>3603.973621145286</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N20" t="n">
-        <v>4729.704604581732</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U20" t="n">
         <v>4550.100609912874</v>
@@ -5822,10 +5822,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H21" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I21" t="n">
         <v>128.3245134312372</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J22" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.5989800066092</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745702</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955483</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113128</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.22078133891</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173584</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878955</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2642.287896536276</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2396.408450114731</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2117.975449367836</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5989,25 +5989,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>605.8694973157604</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1680.92946356862</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2837.977298779171</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>3963.708282215618</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4943.887948785924</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
         <v>4943.887948785924</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>451.897152078511</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>451.897152078511</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>286.3058771043387</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>146.4037027947132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6226,16 +6226,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>936.6111322289576</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2093.658967439508</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6463,19 +6463,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2334.36864173419</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
         <v>3569.079287993933</v>
@@ -6539,13 +6539,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
         <v>1107.588885023173</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1035.728611060351</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>863.1668995435758</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1454.96690046523</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1227.547229779338</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6916,19 +6916,19 @@
         <v>2528.90004765179</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6937,16 +6937,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>306.1208027766299</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>306.1208027766299</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>306.1208027766299</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
         <v>2588.899621423628</v>
@@ -7013,28 +7013,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7165,58 +7165,58 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
         <v>2955.199618136697</v>
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
         <v>2090.757574835212</v>
@@ -7414,49 +7414,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2769.623329187108</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>4566.543227580387</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>811.7546776883955</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>639.1929661716205</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>473.3149733731432</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>303.5569696238804</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>126.8499155856366</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
         <v>102.2608402707796</v>
@@ -7587,34 +7587,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2559.67908147158</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2313.799635050035</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2035.36663430314</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.41112617357</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1476.384721759862</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1230.992967093275</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1003.573296407383</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
         <v>2090.757574835212</v>
@@ -7636,64 +7636,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>306.120802776629</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>306.120802776629</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>306.120802776629</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.7568773477108</v>
+        <v>875.8255515988633</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309357</v>
+        <v>703.2638400820882</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324584</v>
+        <v>537.3858472836109</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831957</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F46" t="n">
-        <v>267.852115244952</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7818,40 +7818,40 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O46" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P46" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q46" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R46" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S46" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.67908147158</v>
       </c>
       <c r="T46" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050035</v>
       </c>
       <c r="U46" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.36663430314</v>
       </c>
       <c r="V46" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.41112617357</v>
       </c>
       <c r="W46" t="n">
-        <v>1617.386921419177</v>
+        <v>1540.45559567033</v>
       </c>
       <c r="X46" t="n">
-        <v>1371.99516675259</v>
+        <v>1295.063841003742</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.575496066698</v>
+        <v>1067.64417031785</v>
       </c>
     </row>
   </sheetData>
@@ -7978,14 +7978,14 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
@@ -7993,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="Q2" t="n">
-        <v>407.1525905495951</v>
-      </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8063,7 +8063,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8139,25 +8139,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>321.9475215913873</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>296.5687363523682</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684621</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8227,13 +8227,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>630.4048323684628</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>72.80589558611018</v>
+        <v>72.80589558610791</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684628</v>
+        <v>630.4048323684619</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>57.24134923374044</v>
+        <v>630.4048323684619</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664742072</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.404832368463</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8385,7 +8385,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>299.7839758982018</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238316</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8461,22 +8461,22 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="N8" t="n">
-        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8695,13 +8695,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8771,22 +8771,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8926,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>288.7351832965069</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9172,16 +9172,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>103.9790360591069</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9239,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,22 +9409,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O20" t="n">
-        <v>387.209503997221</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>508.6956131767483</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>500.2430848324429</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>110.0804674982792</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458549</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>327.8732572545618</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>433.7499898166689</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>205.9191540463134</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10676,16 +10676,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>315.3936483072348</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>257.101999686301</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10898,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,28 +11062,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
-        <v>677.968600966497</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>205.9191540463125</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>143.6516710866794</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>124.3589898130804</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>15.21302026266335</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>143.6516710866793</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>102.9863699957303</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>44.07191583437719</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>3.146865729424327</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>81.78272691405303</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>144.134485924087</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>69.71657238081424</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>139.5921776627222</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>63.43016517136314</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>510358.2399002594</v>
+        <v>510358.2399002593</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>528194.7520187334</v>
+        <v>528194.7520187333</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>528194.7520187336</v>
+        <v>528194.7520187335</v>
       </c>
     </row>
     <row r="9">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>528194.7520187335</v>
+        <v>528194.7520187334</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>528194.7520187336</v>
+        <v>528194.7520187335</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>528194.7520187334</v>
+        <v>528194.7520187336</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>469128.9049041076</v>
+        <v>469128.9049041075</v>
       </c>
       <c r="C2" t="n">
-        <v>469128.9049041075</v>
+        <v>469128.9049041074</v>
       </c>
       <c r="D2" t="n">
         <v>469128.9049041074</v>
@@ -26325,37 +26325,37 @@
         <v>461000.3861201833</v>
       </c>
       <c r="F2" t="n">
-        <v>461000.3861201835</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="G2" t="n">
         <v>461000.3861201833</v>
       </c>
       <c r="H2" t="n">
-        <v>461000.3861201835</v>
+        <v>461000.3861201832</v>
       </c>
       <c r="I2" t="n">
         <v>461000.3861201833</v>
       </c>
       <c r="J2" t="n">
-        <v>461000.3861201833</v>
+        <v>461000.3861201834</v>
       </c>
       <c r="K2" t="n">
         <v>461000.3861201833</v>
       </c>
       <c r="L2" t="n">
-        <v>461000.3861201834</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="M2" t="n">
         <v>461000.3861201833</v>
       </c>
       <c r="N2" t="n">
-        <v>461000.3861201834</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="O2" t="n">
+        <v>461000.3861201833</v>
+      </c>
+      <c r="P2" t="n">
         <v>461000.3861201835</v>
-      </c>
-      <c r="P2" t="n">
-        <v>461000.3861201833</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501598</v>
+        <v>66587.76789501566</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998296</v>
+        <v>11527.59554998326</v>
       </c>
       <c r="E3" t="n">
         <v>182355.1092210498</v>
@@ -26392,16 +26392,16 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877236</v>
+        <v>53045.85463877211</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622465</v>
+        <v>9392.301726622709</v>
       </c>
       <c r="M3" t="n">
         <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>199828.8262465156</v>
       </c>
       <c r="C4" t="n">
-        <v>163226.8987932459</v>
+        <v>163226.8987932461</v>
       </c>
       <c r="D4" t="n">
         <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933271</v>
       </c>
       <c r="F4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933271</v>
       </c>
       <c r="G4" t="n">
-        <v>68000.69828933277</v>
+        <v>68000.69828933271</v>
       </c>
       <c r="H4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933274</v>
       </c>
       <c r="I4" t="n">
         <v>68000.69828933281</v>
@@ -26453,13 +26453,13 @@
         <v>68000.69828933277</v>
       </c>
       <c r="N4" t="n">
+        <v>68000.69828933281</v>
+      </c>
+      <c r="O4" t="n">
         <v>68000.69828933277</v>
       </c>
-      <c r="O4" t="n">
-        <v>68000.69828933279</v>
-      </c>
       <c r="P4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933282</v>
       </c>
     </row>
     <row r="5">
@@ -26472,22 +26472,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800255</v>
+        <v>71956.21380800247</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67683.98986065976</v>
+        <v>67683.98986065964</v>
       </c>
       <c r="C6" t="n">
-        <v>167358.0244078431</v>
+        <v>167358.0244078432</v>
       </c>
       <c r="D6" t="n">
-        <v>226752.143539693</v>
+        <v>226752.1435396926</v>
       </c>
       <c r="E6" t="n">
-        <v>132926.3400040083</v>
+        <v>132903.1156646256</v>
       </c>
       <c r="F6" t="n">
-        <v>315281.4492250582</v>
+        <v>315258.2248856754</v>
       </c>
       <c r="G6" t="n">
-        <v>315281.4492250581</v>
+        <v>315258.2248856754</v>
       </c>
       <c r="H6" t="n">
-        <v>315281.4492250581</v>
+        <v>315258.2248856753</v>
       </c>
       <c r="I6" t="n">
-        <v>315281.449225058</v>
+        <v>315258.2248856754</v>
       </c>
       <c r="J6" t="n">
-        <v>204266.9838800678</v>
+        <v>204243.7595406852</v>
       </c>
       <c r="K6" t="n">
-        <v>262235.5945862856</v>
+        <v>262212.3702469032</v>
       </c>
       <c r="L6" t="n">
-        <v>305889.1474984356</v>
+        <v>305865.9231590527</v>
       </c>
       <c r="M6" t="n">
-        <v>163081.2782870704</v>
+        <v>163058.0539476877</v>
       </c>
       <c r="N6" t="n">
-        <v>315281.4492250582</v>
+        <v>315258.2248856753</v>
       </c>
       <c r="O6" t="n">
-        <v>315281.4492250581</v>
+        <v>315258.2248856754</v>
       </c>
       <c r="P6" t="n">
-        <v>315281.449225058</v>
+        <v>315258.2248856754</v>
       </c>
     </row>
   </sheetData>
@@ -26792,22 +26792,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.404832368463</v>
+        <v>630.4048323684619</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4.063161046444251e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483586</v>
+        <v>206.1089748483577</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939399</v>
+        <v>37.11037423939496</v>
       </c>
       <c r="E4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483586</v>
+        <v>206.1089748483577</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939399</v>
+        <v>37.11037423939496</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483586</v>
+        <v>206.1089748483577</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939399</v>
+        <v>37.11037423939496</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>72.71868052833509</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27390,16 +27390,16 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>157.6913640430168</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>251.6878690358712</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>97.71278104439406</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27627,13 +27627,13 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>188.7694463622935</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>155.2075075144757</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27785,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>140.8783988682217</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>89.52433206465062</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>289.9811395907772</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>229.5149405222781</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>161.9268490649754</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28073,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>52.0170157719086</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28289,7 +28289,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-4.651176503178812e-12</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-1.348032796499865e-12</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-1.348032796499865e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,13 +28851,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-1.247243640152575e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30699,7 +30699,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -30890,7 +30890,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -34698,14 +34698,14 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
@@ -34713,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="Q2" t="n">
-        <v>407.1525905495951</v>
-      </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34783,7 +34783,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34859,25 +34859,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>321.9475215913873</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>296.5687363523682</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684621</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34947,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>630.4048323684628</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>72.80589558611018</v>
+        <v>72.80589558610791</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684628</v>
+        <v>630.4048323684619</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>57.24134923374044</v>
+        <v>630.4048323684619</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664742072</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.404832368463</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35105,16 +35105,16 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>299.7839758982018</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238316</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35181,22 +35181,22 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="N8" t="n">
-        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35269,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35488,25 +35488,25 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35573,7 +35573,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35585,7 +35585,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
-        <v>351.017064616507</v>
+        <v>351.017064616502</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821539</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>288.7351832965069</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.8366918850629</v>
@@ -35746,7 +35746,7 @@
         <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35810,7 +35810,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -35892,16 +35892,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471158</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>103.9790360591069</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36047,7 +36047,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O20" t="n">
-        <v>387.209503997221</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K21" t="n">
         <v>661.3192390158824</v>
@@ -36281,19 +36281,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924961008</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>508.6956131767483</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
         <v>170.862691669754</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>500.2430848324429</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>110.0804674982792</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458546</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>327.8732572545618</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37159,7 +37159,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>433.7499898166689</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>205.9191540463134</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37396,16 +37396,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>315.3936483072348</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>257.101999686301</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37642,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081364</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
-        <v>677.968600966497</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37955,7 +37955,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165111</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821539</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>205.9191540463125</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38186,7 +38186,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956047</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512943</v>
